--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_003.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_003.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295019AK2.12) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295021AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Feeding and bleeding reactor vessel</t>
-  </si>
-  <si>
-    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
-  </si>
-  <si>
-    <t>(295037EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Redundant reactivity control system</t>
-  </si>
-  <si>
-    <t>(295001AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Core flow response</t>
-  </si>
-  <si>
-    <t>(295016AA1.13) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Shutdown cooling system (RHR shutdown cooling mode)</t>
-  </si>
-  <si>
-    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EK2.07) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(600000AA1.05) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6): Plant and control room ventilation systems</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
-  </si>
-  <si>
-    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295003AK2.04) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical loads</t>
-  </si>
-  <si>
-    <t>(295005AA1.11) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RCIC (BWR 6)</t>
-  </si>
-  <si>
-    <t>(295017AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034EK2.03) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295022AA1.05) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) NBI</t>
-  </si>
-  <si>
-    <t>(295008AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Main turbine trip</t>
-  </si>
-  <si>
-    <t>(223002A4.03) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system isolations</t>
-  </si>
-  <si>
-    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
-  </si>
-  <si>
-    <t>(400000A3.06) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) System response due to a LOOP signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
-  </si>
-  <si>
-    <t>(261000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Instrument air system</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209001K4.08) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(212000K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Process radiation monitoring</t>
-  </si>
-  <si>
-    <t>(510000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(259002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Controller operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(217000A4.12) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
-  </si>
-  <si>
-    <t>(215004A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Detector position</t>
-  </si>
-  <si>
-    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
-  </si>
-  <si>
-    <t>(203000A2.18) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(218000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291002K1.11) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Effects of operating environment (pressure, temperature, or radiation)</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(215005K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(209002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Suppression pool suction strainer</t>
-  </si>
-  <si>
-    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
-  </si>
-  <si>
-    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
-  </si>
-  <si>
-    <t>(223002A4.04) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) System indicating lights and alarms</t>
-  </si>
-  <si>
-    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
-  </si>
-  <si>
-    <t>(400000A3.03) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Spent fuel pool cooling</t>
-  </si>
-  <si>
-    <t>(262001A2.06) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of a plant bus</t>
-  </si>
-  <si>
-    <t>(241000K2.02) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Controls</t>
-  </si>
-  <si>
-    <t>(239001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.5 / 45.3) Inadvertent MSIV operation</t>
-  </si>
-  <si>
-    <t>(216000A4.03) Ability to manually operate and/or monitor the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(201003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM including: (CFR: 41.1-6 / 45.1-6) CRD mechanism temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(202001A3.01) Ability to monitor automatic operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.7 / 45.7) </t>
-  </si>
-  <si>
-    <t>(204000A2.14) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) System high temperature</t>
-  </si>
-  <si>
-    <t>(201005K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Intermediate range monitor system</t>
-  </si>
-  <si>
-    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215001K4.03) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Radiation shielding</t>
-  </si>
-  <si>
-    <t>(510001K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 CWS*) CIRCULATING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Circulating water system temperature</t>
-  </si>
-  <si>
-    <t>(290002K6.19) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) HIGH-PRESSURE CORE SPRAY SYSTEM (BWR 5, 6)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295024EA1.20) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Standby gas treatment/FRVS</t>
+  </si>
+  <si>
+    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+  </si>
+  <si>
+    <t>(295005AK2.13) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(295037EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Standby liquid control system</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(295026EK2.01) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
+  </si>
+  <si>
+    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
+  </si>
+  <si>
+    <t>(600000AK2.08) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Portable fire suppression systems</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Downcomer/horizontal vent submergence</t>
+  </si>
+  <si>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
+  </si>
+  <si>
+    <t>(295009AK2.06) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295029EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
+  </si>
+  <si>
+    <t>(295012AA2.03) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell humidity</t>
+  </si>
+  <si>
+    <t>(500000EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Drywell sprays</t>
+  </si>
+  <si>
+    <t>(295020AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Drywell/containment temperature response</t>
+  </si>
+  <si>
+    <t>(259002A3.01) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Runout flow control</t>
+  </si>
+  <si>
+    <t>(217000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(209001K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t>(215005A2.07) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels flow mismatch</t>
+  </si>
+  <si>
+    <t>(263000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Battery charger and battery</t>
+  </si>
+  <si>
+    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
+  </si>
+  <si>
+    <t>(205000K3.03) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Temperatures</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(223002A4.02) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation of the system</t>
+  </si>
+  <si>
+    <t>(261000K4.08) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Fire suppression</t>
+  </si>
+  <si>
+    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(400000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW flow rate</t>
+  </si>
+  <si>
+    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
+  </si>
+  <si>
+    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
+  </si>
+  <si>
+    <t>(215004K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detectors</t>
+  </si>
+  <si>
+    <t>(510000K3.13) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Feedwater system</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (291002K1.15) SENSORS AND DETECTORS (CFR: 41.7) (TEMPERATURE) Failure modes and indications of T/C, RTD or, thermometers</t>
+  </si>
+  <si>
+    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+  </si>
+  <si>
+    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(215003K4.02) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
+  </si>
+  <si>
+    <t>(259002A3.10) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) TDRFP lockup</t>
+  </si>
+  <si>
+    <t>(217000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) RCIC pressure</t>
+  </si>
+  <si>
+    <t>(209001K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Residual heat removal system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.13) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
+  </si>
+  <si>
+    <t>(230000K4.05) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Pump minimum flow protection</t>
+  </si>
+  <si>
+    <t>(239001A3.02) Ability to monitor automatic operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.7 / 45.7) Opening and closing of drain valves as turbine load changes</t>
+  </si>
+  <si>
+    <t>(290001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.5 / 45.5) Reactor building differential pressure</t>
+  </si>
+  <si>
+    <t>(201001K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDH) CRD HYDRAULIC SYSTEM and the following systems: (CFR: 41.1-3 to 41.5-8 / 45.1-6 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
+  </si>
+  <si>
+    <t>(215001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.5 / 45.3) Area radiation monitor indications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201005K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.7 / 45.7) </t>
+  </si>
+  <si>
+    <t>(223001K3.13) Knowledge of the effect that a loss or malfunction of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIC</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(233000K2.01) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel pool cooling pumps</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
+  </si>
+  <si>
+    <t>(292008K1.11) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Discuss the concept of the point of adding heat (POAH) and its impact on reactor power</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(293009K1.11) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Explain the basis of the limiting condition for APLGHR</t>
+  </si>
+  <si>
+    <t>(293007K1.11) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Explain methods of calculating core thermal power</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(295014AA2.05) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of safety limits</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295013AA2.01) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(205000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low shutdown cooling suction pressure</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(218000A2.05) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of electrical power to ADS</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(510001A2.02) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
-  </si>
-  <si>
-    <t>(292008K1.22) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the effect that opening steam bypass valves, during power operation, will have on reactor power</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t>(293009K1.14) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Explain the mechanisms most limiting for each region</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(293006K1.20) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Describe the problems that will occur in emergency core cooling systems if the pumps are operated at lower than design flow for extended periods of time</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operations status of safety-related (vital) buses</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000A2.09) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic or manual initiation failure</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(212000A2.01) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) RPS motor-generator set failure</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(201001A2.03) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Power supply failures</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(230000A2.07) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
-  </si>
-  <si>
-    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>G</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295012</t>
   </si>
   <si>
     <t>500000</t>
   </si>
   <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
     <t>295014</t>
   </si>
   <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295013</t>
   </si>
   <si>
     <t>202001</t>
   </si>
   <si>
+    <t>510001</t>
+  </si>
+  <si>
     <t>204000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>230000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D29" t="s">
         <v>106</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
         <v>106</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
         <v>106</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D57" t="s">
         <v>106</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>3.8</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D78" t="s">
         <v>109</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
         <v>109</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D82" t="s">
         <v>109</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>4.4</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
         <v>109</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D92" t="s">
         <v>109</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
